--- a/Lab1/analysis/StringHeuristic1-MutationAsTopWhoops/int-0.xlsx
+++ b/Lab1/analysis/StringHeuristic1-MutationAsTopWhoops/int-0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\StringHeuristic1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ilan\Programming\University\AILab\Lab1\analysis\StringHeuristic1-MutationAsTopWhoops\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1337,6 +1337,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Population Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1399,6 +1454,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (sec)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2376,7 +2491,7 @@
   <dimension ref="A1:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
